--- a/practica4/tablasPractica3.xlsx
+++ b/practica4/tablasPractica3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pagaliv\Documents\GitHub\practicas-PL\practica4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC8623F-6446-4C54-899A-F8223C7D0819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85DA881-4192-44E2-A491-D5D166B17D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="105" windowWidth="21600" windowHeight="11295" xr2:uid="{68E17437-350A-4325-9DB1-9E4FC0B054AC}"/>
+    <workbookView xWindow="7320" yWindow="105" windowWidth="21600" windowHeight="11295" xr2:uid="{68E17437-350A-4325-9DB1-9E4FC0B054AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <t>G(6)</t>
   </si>
   <si>
-    <t>{7,11}</t>
-  </si>
-  <si>
     <t>{8,11}</t>
   </si>
   <si>
     <t>H(7)</t>
+  </si>
+  <si>
+    <t>{10}</t>
   </si>
 </sst>
 </file>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5751F9F4-4FD0-4619-8263-DFA1F8457F00}" name="Tabla2" displayName="Tabla2" ref="A3:E11" totalsRowShown="0">
-  <autoFilter ref="A3:E11" xr:uid="{5751F9F4-4FD0-4619-8263-DFA1F8457F00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5751F9F4-4FD0-4619-8263-DFA1F8457F00}" name="Tabla2" displayName="Tabla2" ref="A3:E12" totalsRowShown="0">
+  <autoFilter ref="A3:E12" xr:uid="{5751F9F4-4FD0-4619-8263-DFA1F8457F00}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1036B99F-40D4-472E-81EC-5407186F11C0}" name="  "/>
     <tableColumn id="2" xr3:uid="{A6ED096E-6EAC-42A6-BE20-17260055D0DB}" name="     "/>
@@ -474,7 +474,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -607,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
